--- a/xlsx/罗马共和国_intext.xlsx
+++ b/xlsx/罗马共和国_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="679">
   <si>
     <t>罗马共和国</t>
   </si>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%98%E5%88%A9%E4%BA%9E%E8%AA%9E</t>
   </si>
   <si>
-    <t>敘利亞語</t>
+    <t>叙利亚语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8D%A2%E8%AF%AD</t>
@@ -101,13 +101,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9F%8F%E7%88%BE%E8%AA%9E</t>
   </si>
   <si>
-    <t>柏柏爾語</t>
+    <t>柏柏尔语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BE%85%E9%A6%AC%E5%AE%97%E6%95%99</t>
   </si>
   <si>
-    <t>古羅馬宗教</t>
+    <t>古罗马宗教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E4%BD%93</t>
@@ -149,13 +149,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%AA%E7%88%BE%E5%BA%AB%E6%96%AF%C2%B7%E7%B6%AD%E6%99%AE%E6%92%92%E5%B0%BC%E7%83%8F%E6%96%AF%C2%B7%E9%98%BF%E6%A0%BC%E9%87%8C%E5%B8%95</t>
   </si>
   <si>
-    <t>瑪爾庫斯·維普撒尼烏斯·阿格里帕</t>
+    <t>玛尔库斯·维普撒尼乌斯·阿格里帕</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E9%83%A8%E9%96%80</t>
   </si>
   <si>
-    <t>立法部門</t>
+    <t>立法部门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E6%97%B6%E4%BB%A3</t>
@@ -179,25 +179,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%85%8B%E8%88%88%E8%A7%92%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>亞克興角戰役</t>
+    <t>亚克兴角战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%8F%A4%E6%96%AF%E9%83%BD_(%E7%A8%B1%E8%99%9F)</t>
   </si>
   <si>
-    <t>奧古斯都 (稱號)</t>
+    <t>奥古斯都 (称号)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E9%9D%A2%E7%A9%8D%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國家面積列表</t>
+    <t>国家面积列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3</t>
   </si>
   <si>
-    <t>貨幣</t>
+    <t>货币</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%B7%B4%E5%B0%BC%E4%BA%9A</t>
@@ -227,13 +227,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
   </si>
   <si>
-    <t>比利時</t>
+    <t>比利时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E5%B0%BC%E4%BA%9E%E8%88%87%E8%B5%AB%E5%A1%9E%E5%93%A5%E7%B6%AD%E7%B4%8D</t>
   </si>
   <si>
-    <t>波士尼亞與赫塞哥維納</t>
+    <t>波士尼亚与赫塞哥维纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BD%97%E5%9C%B0%E4%BA%9A</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
   </si>
   <si>
-    <t>賽普勒斯</t>
+    <t>赛普勒斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>希臘</t>
+    <t>希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E6%97%A6</t>
@@ -305,31 +305,31 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>馬其頓共和國</t>
+    <t>马其顿共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96</t>
   </si>
   <si>
-    <t>馬爾他</t>
+    <t>马尔他</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E7%B4%8D%E5%93%A5</t>
   </si>
   <si>
-    <t>摩納哥</t>
+    <t>摩纳哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
   </si>
   <si>
-    <t>蒙特內哥羅</t>
+    <t>蒙特内哥罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99</t>
@@ -353,19 +353,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%83%8F%E5%9C%B0%E9%98%BF%E6%8B%89%E4%BC%AF</t>
   </si>
   <si>
-    <t>沙烏地阿拉伯</t>
+    <t>沙乌地阿拉伯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%88%BE%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>塞爾維亞</t>
+    <t>塞尔维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>斯洛維尼亞</t>
+    <t>斯洛维尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
@@ -389,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>突尼西亞</t>
+    <t>突尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
@@ -443,13 +443,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>羅馬帝國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%BE%85%E9%A6%AC%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>西羅馬帝國</t>
+    <t>西罗马帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%9C%E5%8D%A0%E5%BA%AD%E5%B8%9D%E5%9B%BD</t>
@@ -461,7 +458,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%93%A5%E5%BE%B7%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>東哥德王國</t>
+    <t>东哥德王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%BA%AA%E7%9A%84%E6%84%8F%E5%A4%A7%E5%88%A9</t>
@@ -515,7 +512,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E6%96%87%E8%97%9D%E5%BE%A9%E8%88%88</t>
   </si>
   <si>
-    <t>義大利文藝復興</t>
+    <t>义大利文艺复兴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E6%88%98%E4%BA%89</t>
@@ -533,13 +530,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E7%B5%B1%E4%B8%80</t>
   </si>
   <si>
-    <t>意大利統一</t>
+    <t>意大利统一</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E7%8E%8B%E5%9C%8B_(1861%E2%80%931946)</t>
   </si>
   <si>
-    <t>意大利王國 (1861–1946)</t>
+    <t>意大利王国 (1861–1946)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E6%B3%95%E8%A5%BF%E6%96%AF%E5%85%9A</t>
@@ -605,7 +602,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E4%BA%BA</t>
   </si>
   <si>
-    <t>希臘人</t>
+    <t>希腊人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E4%B8%AD%E6%B5%B7</t>
@@ -707,13 +704,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A</t>
   </si>
   <si>
-    <t>希腊</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC-%E6%95%98%E5%88%A9%E4%BA%9E%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>羅馬-敘利亞戰爭</t>
+    <t>罗马-叙利亚战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E4%BA%9A</t>
@@ -749,21 +743,18 @@
     <t>https://zh.wikipedia.org/wiki/%E8%93%8B%E7%83%8F%E6%96%AF%C2%B7%E9%A6%AC%E7%95%A5</t>
   </si>
   <si>
-    <t>蓋烏斯·馬略</t>
+    <t>盖乌斯·马略</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%B7%E6%94%BF%E5%AE%98</t>
   </si>
   <si>
-    <t>執政官</t>
+    <t>执政官</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC</t>
   </si>
   <si>
-    <t>羅馬</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E7%95%A5%E6%94%B9%E9%9D%A9</t>
   </si>
   <si>
@@ -809,7 +800,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E7%9B%9F%E8%80%85%E6%88%B0%E7%88%AD_(%E5%89%8D91%E5%88%B088%E5%B9%B4)</t>
   </si>
   <si>
-    <t>同盟者戰爭 (前91到88年)</t>
+    <t>同盟者战争 (前91到88年)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E5%8F%B2_(%E6%9D%8E%E7%BB%B4)</t>
@@ -821,7 +812,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E7%8E%8B%E6%94%BF%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>羅馬王政時期</t>
+    <t>罗马王政时期</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Lucretia</t>
@@ -839,13 +830,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%85%83%E8%80%81%E9%99%A2</t>
   </si>
   <si>
-    <t>羅馬元老院</t>
+    <t>罗马元老院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>羅馬會議</t>
+    <t>罗马会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%B5%E6%97%8F</t>
@@ -875,7 +866,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%BA%BA%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>十人委員會</t>
+    <t>十人委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%BA%8C%E9%93%9C%E8%A1%A8%E6%B3%95</t>
@@ -905,7 +896,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B7%E6%B0%91%E5%AE%98</t>
   </si>
   <si>
-    <t>護民官</t>
+    <t>护民官</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8F%90%E6%AF%94%E7%95%A5%C2%B7%E6%A0%BC%E6%8B%89%E5%8F%A4</t>
@@ -947,7 +938,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E5%88%A9%E7%83%8F%E6%96%AF%C2%B7%E5%87%B1%E6%92%92</t>
   </si>
   <si>
-    <t>尤利烏斯·凱撒</t>
+    <t>尤利乌斯·凯撒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E8%A3%81</t>
@@ -1049,7 +1040,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E8%BB%8D%E5%9C%98</t>
   </si>
   <si>
-    <t>羅馬軍團</t>
+    <t>罗马军团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E7%9A%84%E5%BB%BA%E7%AB%8B</t>
@@ -1073,25 +1064,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E8%81%96%E7%BE%85%E9%A6%AC%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>神聖羅馬帝國</t>
+    <t>神圣罗马帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%84%8F%E5%BF%97%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>德意志帝國</t>
+    <t>德意志帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>義大利王國</t>
+    <t>义大利王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%B2%B9%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>納粹德國</t>
+    <t>纳粹德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E6%AE%96%E6%B0%91%E5%B8%9D%E5%9B%BD</t>
@@ -1109,7 +1100,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>羅馬歷史</t>
+    <t>罗马历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E5%85%AC%E6%B0%91</t>
@@ -1133,9 +1124,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%BD%97%E9%A9%AC%E5%B8%9D%E5%9B%BD</t>
   </si>
   <si>
-    <t>西罗马帝国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E5%AE%AA%E6%94%BF</t>
   </si>
   <si>
@@ -1199,13 +1187,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%8B%99%E5%AE%98_(%E7%BE%85%E9%A6%AC)</t>
   </si>
   <si>
-    <t>政務官 (羅馬)</t>
+    <t>政务官 (罗马)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B8%9D%E5%9C%8B%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>羅馬帝國政府</t>
+    <t>罗马帝国政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E5%BB%B7</t>
@@ -1241,7 +1229,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E5%8A%A0%E5%9C%96%E6%96%AF</t>
   </si>
   <si>
-    <t>雷加圖斯</t>
+    <t>雷加图斯</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Dux</t>
@@ -1271,7 +1259,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%8D%81%E5%85%AD%E4%BA%BA%E5%9C%98</t>
   </si>
   <si>
-    <t>二十六人團</t>
+    <t>二十六人团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%80%E6%96%A7%E6%89%8B</t>
@@ -1349,7 +1337,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E7%B8%BD%E7%9D%A3</t>
   </si>
   <si>
-    <t>羅馬總督</t>
+    <t>罗马总督</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AA%91%E5%A3%AB%E7%BB%9F%E9%A2%86</t>
@@ -1367,7 +1355,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E9%A0%AD%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>三頭政治</t>
+    <t>三头政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E5%9B%BD%E7%8E%8B</t>
@@ -1427,7 +1415,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E6%B0%91_(%E5%8F%A4%E7%BE%85%E9%A6%AC)</t>
   </si>
   <si>
-    <t>平民 (古羅馬)</t>
+    <t>平民 (古罗马)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Conflict_of_the_Orders</t>
@@ -1457,9 +1445,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E4%BC%9A%E8%AE%AE</t>
   </si>
   <si>
-    <t>罗马会议</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BD%97%E9%A9%AC%E4%BA%BA%E5%91%BD%E5%90%8D%E4%B9%A0%E4%BF%97</t>
   </si>
   <si>
@@ -1487,7 +1472,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BE%85%E9%A6%AC%E5%90%8C%E6%80%A7%E6%88%80</t>
   </si>
   <si>
-    <t>古羅馬同性戀</t>
+    <t>古罗马同性恋</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Slavery_in_ancient_Rome</t>
@@ -1505,7 +1490,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BE%85%E9%A6%AC%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>古羅馬軍事</t>
+    <t>古罗马军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BD%97%E9%A9%AC%E5%86%9B%E4%BA%8B%E5%8F%B2</t>
@@ -1517,7 +1502,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E6%88%B0%E5%BD%B9%E5%8F%B2</t>
   </si>
   <si>
-    <t>羅馬戰役史</t>
+    <t>罗马战役史</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/%E5%8F%A4%E7%BD%97%E9%A9%AC%E5%86%9B%E4%BA%8B%E7%A7%91%E6%8A%80%E5%8F%B2</t>
@@ -1565,15 +1550,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E9%99%B8%E8%BB%8D</t>
   </si>
   <si>
-    <t>羅馬陸軍</t>
+    <t>罗马陆军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E5%86%9B%E5%9B%A2</t>
   </si>
   <si>
-    <t>罗马军团</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Roman_military_personal_equipment</t>
   </si>
   <si>
@@ -1589,7 +1571,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E6%B5%B7%E8%BB%8D</t>
   </si>
   <si>
-    <t>羅馬海軍</t>
+    <t>罗马海军</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Auxiliaries_(Roman_military)</t>
@@ -1649,7 +1631,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BE%85%E9%A6%AC%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>古羅馬文化</t>
+    <t>古罗马文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BD%97%E9%A9%AC%E6%96%87%E5%AD%A6</t>
@@ -1661,7 +1643,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BE%85%E9%A6%AC%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>古羅馬建築</t>
+    <t>古罗马建筑</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Roman_funerals_and_burial</t>
@@ -1757,7 +1739,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E9%81%93%E8%B7%AF</t>
   </si>
   <si>
-    <t>羅馬道路</t>
+    <t>罗马道路</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Roman_bridge</t>
@@ -1793,7 +1775,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BE%85%E9%A6%AC%E8%BE%B2%E6%A5%AD</t>
   </si>
   <si>
-    <t>古羅馬農業</t>
+    <t>古罗马农业</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Roman_commerce</t>
@@ -1835,7 +1817,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E6%8B%89%E4%B8%81%E8%AA%9E</t>
   </si>
   <si>
-    <t>古典拉丁語</t>
+    <t>古典拉丁语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E4%BF%97%E6%8B%89%E4%B8%81%E8%AF%AD</t>
@@ -1919,7 +1901,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E5%9D%8E</t>
   </si>
   <si>
-    <t>盧坎</t>
+    <t>卢坎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E5%85%8B%E8%8E%B1%E4%BF%AE</t>
@@ -1937,13 +1919,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E7%B6%AD%E5%BE%B7</t>
   </si>
   <si>
-    <t>奧維德</t>
+    <t>奥维德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%93%8B%E5%8E%84%E6%96%AF%C2%B7%E4%BD%A9%E7%89%B9%E7%BE%85%E5%B0%BC%E7%83%8F%E6%96%AF%C2%B7%E9%98%BF%E7%88%BE%E6%AF%94%E7%89%B9</t>
   </si>
   <si>
-    <t>蓋厄斯·佩特羅尼烏斯·阿爾比特</t>
+    <t>盖厄斯·佩特罗尼乌斯·阿尔比特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E5%8A%B3%E5%9B%BE%E6%96%AF</t>
@@ -1985,7 +1967,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%85%A7%E5%8D%A1</t>
   </si>
   <si>
-    <t>塞內卡</t>
+    <t>塞内卡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%A1%94%E6%8F%90%E4%B9%8C%E6%96%AF</t>
@@ -2021,7 +2003,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%BA%AB%E6%96%AF%C2%B7%E7%89%B9%E5%80%AB%E6%8F%90%E7%83%8F%E6%96%AF%C2%B7%E7%93%A6%E7%BE%85</t>
   </si>
   <si>
-    <t>馬庫斯·特倫提烏斯·瓦羅</t>
+    <t>马库斯·特伦提乌斯·瓦罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%90%89%E5%B0%94</t>
@@ -4499,7 +4481,7 @@
         <v>141</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>10</v>
       </c>
       <c r="G72" t="n">
         <v>9</v>
@@ -4525,10 +4507,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F73" t="s">
         <v>143</v>
-      </c>
-      <c r="F73" t="s">
-        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>2</v>
@@ -4554,10 +4536,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>144</v>
+      </c>
+      <c r="F74" t="s">
         <v>145</v>
-      </c>
-      <c r="F74" t="s">
-        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4583,10 +4565,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>146</v>
+      </c>
+      <c r="F75" t="s">
         <v>147</v>
-      </c>
-      <c r="F75" t="s">
-        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4612,10 +4594,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>148</v>
+      </c>
+      <c r="F76" t="s">
         <v>149</v>
-      </c>
-      <c r="F76" t="s">
-        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>4</v>
@@ -4641,10 +4623,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>148</v>
+      </c>
+      <c r="F77" t="s">
         <v>149</v>
-      </c>
-      <c r="F77" t="s">
-        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4670,10 +4652,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>144</v>
+      </c>
+      <c r="F78" t="s">
         <v>145</v>
-      </c>
-      <c r="F78" t="s">
-        <v>146</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4699,10 +4681,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>150</v>
+      </c>
+      <c r="F79" t="s">
         <v>151</v>
-      </c>
-      <c r="F79" t="s">
-        <v>152</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4728,10 +4710,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>152</v>
+      </c>
+      <c r="F80" t="s">
         <v>153</v>
-      </c>
-      <c r="F80" t="s">
-        <v>154</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4757,10 +4739,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>154</v>
+      </c>
+      <c r="F81" t="s">
         <v>155</v>
-      </c>
-      <c r="F81" t="s">
-        <v>156</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4786,10 +4768,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>156</v>
+      </c>
+      <c r="F82" t="s">
         <v>157</v>
-      </c>
-      <c r="F82" t="s">
-        <v>158</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4815,10 +4797,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>158</v>
+      </c>
+      <c r="F83" t="s">
         <v>159</v>
-      </c>
-      <c r="F83" t="s">
-        <v>160</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4844,10 +4826,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>160</v>
+      </c>
+      <c r="F84" t="s">
         <v>161</v>
-      </c>
-      <c r="F84" t="s">
-        <v>162</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4873,10 +4855,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>162</v>
+      </c>
+      <c r="F85" t="s">
         <v>163</v>
-      </c>
-      <c r="F85" t="s">
-        <v>164</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4902,10 +4884,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>164</v>
+      </c>
+      <c r="F86" t="s">
         <v>165</v>
-      </c>
-      <c r="F86" t="s">
-        <v>166</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -4931,10 +4913,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>166</v>
+      </c>
+      <c r="F87" t="s">
         <v>167</v>
-      </c>
-      <c r="F87" t="s">
-        <v>168</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4960,10 +4942,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>168</v>
+      </c>
+      <c r="F88" t="s">
         <v>169</v>
-      </c>
-      <c r="F88" t="s">
-        <v>170</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4989,10 +4971,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>170</v>
+      </c>
+      <c r="F89" t="s">
         <v>171</v>
-      </c>
-      <c r="F89" t="s">
-        <v>172</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -5018,10 +5000,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>172</v>
+      </c>
+      <c r="F90" t="s">
         <v>173</v>
-      </c>
-      <c r="F90" t="s">
-        <v>174</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -5047,10 +5029,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>174</v>
+      </c>
+      <c r="F91" t="s">
         <v>175</v>
-      </c>
-      <c r="F91" t="s">
-        <v>176</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -5076,10 +5058,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>176</v>
+      </c>
+      <c r="F92" t="s">
         <v>177</v>
-      </c>
-      <c r="F92" t="s">
-        <v>178</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -5105,10 +5087,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>178</v>
+      </c>
+      <c r="F93" t="s">
         <v>179</v>
-      </c>
-      <c r="F93" t="s">
-        <v>180</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -5134,10 +5116,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>180</v>
+      </c>
+      <c r="F94" t="s">
         <v>181</v>
-      </c>
-      <c r="F94" t="s">
-        <v>182</v>
       </c>
       <c r="G94" t="n">
         <v>8</v>
@@ -5163,10 +5145,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>182</v>
+      </c>
+      <c r="F95" t="s">
         <v>183</v>
-      </c>
-      <c r="F95" t="s">
-        <v>184</v>
       </c>
       <c r="G95" t="n">
         <v>2</v>
@@ -5192,10 +5174,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>184</v>
+      </c>
+      <c r="F96" t="s">
         <v>185</v>
-      </c>
-      <c r="F96" t="s">
-        <v>186</v>
       </c>
       <c r="G96" t="n">
         <v>7</v>
@@ -5221,10 +5203,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>186</v>
+      </c>
+      <c r="F97" t="s">
         <v>187</v>
-      </c>
-      <c r="F97" t="s">
-        <v>188</v>
       </c>
       <c r="G97" t="n">
         <v>33</v>
@@ -5250,10 +5232,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>188</v>
+      </c>
+      <c r="F98" t="s">
         <v>189</v>
-      </c>
-      <c r="F98" t="s">
-        <v>190</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5279,10 +5261,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>190</v>
+      </c>
+      <c r="F99" t="s">
         <v>191</v>
-      </c>
-      <c r="F99" t="s">
-        <v>192</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5308,10 +5290,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>192</v>
+      </c>
+      <c r="F100" t="s">
         <v>193</v>
-      </c>
-      <c r="F100" t="s">
-        <v>194</v>
       </c>
       <c r="G100" t="n">
         <v>4</v>
@@ -5337,10 +5319,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>194</v>
+      </c>
+      <c r="F101" t="s">
         <v>195</v>
-      </c>
-      <c r="F101" t="s">
-        <v>196</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5366,10 +5348,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>196</v>
+      </c>
+      <c r="F102" t="s">
         <v>197</v>
-      </c>
-      <c r="F102" t="s">
-        <v>198</v>
       </c>
       <c r="G102" t="n">
         <v>6</v>
@@ -5395,10 +5377,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>198</v>
+      </c>
+      <c r="F103" t="s">
         <v>199</v>
-      </c>
-      <c r="F103" t="s">
-        <v>200</v>
       </c>
       <c r="G103" t="n">
         <v>5</v>
@@ -5424,10 +5406,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>200</v>
+      </c>
+      <c r="F104" t="s">
         <v>201</v>
-      </c>
-      <c r="F104" t="s">
-        <v>202</v>
       </c>
       <c r="G104" t="n">
         <v>10</v>
@@ -5453,10 +5435,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>202</v>
+      </c>
+      <c r="F105" t="s">
         <v>203</v>
-      </c>
-      <c r="F105" t="s">
-        <v>204</v>
       </c>
       <c r="G105" t="n">
         <v>10</v>
@@ -5482,10 +5464,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>204</v>
+      </c>
+      <c r="F106" t="s">
         <v>205</v>
-      </c>
-      <c r="F106" t="s">
-        <v>206</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -5511,10 +5493,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>206</v>
+      </c>
+      <c r="F107" t="s">
         <v>207</v>
-      </c>
-      <c r="F107" t="s">
-        <v>208</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5540,10 +5522,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>208</v>
+      </c>
+      <c r="F108" t="s">
         <v>209</v>
-      </c>
-      <c r="F108" t="s">
-        <v>210</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5569,10 +5551,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>210</v>
+      </c>
+      <c r="F109" t="s">
         <v>211</v>
-      </c>
-      <c r="F109" t="s">
-        <v>212</v>
       </c>
       <c r="G109" t="n">
         <v>3</v>
@@ -5598,10 +5580,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>212</v>
+      </c>
+      <c r="F110" t="s">
         <v>213</v>
-      </c>
-      <c r="F110" t="s">
-        <v>214</v>
       </c>
       <c r="G110" t="n">
         <v>2</v>
@@ -5627,10 +5609,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>214</v>
+      </c>
+      <c r="F111" t="s">
         <v>215</v>
-      </c>
-      <c r="F111" t="s">
-        <v>216</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5656,10 +5638,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>216</v>
+      </c>
+      <c r="F112" t="s">
         <v>217</v>
-      </c>
-      <c r="F112" t="s">
-        <v>218</v>
       </c>
       <c r="G112" t="n">
         <v>7</v>
@@ -5685,10 +5667,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>218</v>
+      </c>
+      <c r="F113" t="s">
         <v>219</v>
-      </c>
-      <c r="F113" t="s">
-        <v>220</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5714,10 +5696,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>220</v>
+      </c>
+      <c r="F114" t="s">
         <v>221</v>
-      </c>
-      <c r="F114" t="s">
-        <v>222</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5743,10 +5725,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>222</v>
+      </c>
+      <c r="F115" t="s">
         <v>223</v>
-      </c>
-      <c r="F115" t="s">
-        <v>224</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5772,10 +5754,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>224</v>
+      </c>
+      <c r="F116" t="s">
         <v>225</v>
-      </c>
-      <c r="F116" t="s">
-        <v>226</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5801,10 +5783,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>226</v>
+      </c>
+      <c r="F117" t="s">
         <v>227</v>
-      </c>
-      <c r="F117" t="s">
-        <v>228</v>
       </c>
       <c r="G117" t="n">
         <v>8</v>
@@ -5830,10 +5812,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F118" t="s">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="G118" t="n">
         <v>8</v>
@@ -5859,10 +5841,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F119" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5888,10 +5870,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F120" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G120" t="n">
         <v>3</v>
@@ -5917,10 +5899,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F121" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G121" t="n">
         <v>4</v>
@@ -5946,10 +5928,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F122" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G122" t="n">
         <v>3</v>
@@ -5975,10 +5957,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F123" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6004,10 +5986,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F124" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
@@ -6033,10 +6015,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F125" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6062,10 +6044,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F126" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
@@ -6091,10 +6073,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F127" t="s">
-        <v>248</v>
+        <v>14</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6120,10 +6102,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F128" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6149,10 +6131,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F129" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G129" t="n">
         <v>7</v>
@@ -6178,10 +6160,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F130" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G130" t="n">
         <v>7</v>
@@ -6207,10 +6189,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F131" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6236,10 +6218,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F132" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6265,10 +6247,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F133" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6294,10 +6276,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F134" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G134" t="n">
         <v>5</v>
@@ -6323,10 +6305,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F135" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6352,10 +6334,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F136" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6381,10 +6363,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F137" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6410,10 +6392,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F138" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6468,10 +6450,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F140" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6497,10 +6479,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F141" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6526,10 +6508,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F142" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G142" t="n">
         <v>20</v>
@@ -6555,10 +6537,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F143" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G143" t="n">
         <v>2</v>
@@ -6584,10 +6566,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F144" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G144" t="n">
         <v>28</v>
@@ -6613,10 +6595,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F145" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G145" t="n">
         <v>2</v>
@@ -6642,10 +6624,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F146" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -6671,10 +6653,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F147" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G147" t="n">
         <v>3</v>
@@ -6700,10 +6682,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F148" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6729,10 +6711,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F149" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G149" t="n">
         <v>2</v>
@@ -6758,10 +6740,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F150" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G150" t="n">
         <v>2</v>
@@ -6787,10 +6769,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F151" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6816,10 +6798,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F152" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6845,10 +6827,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F153" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6874,10 +6856,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F154" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6903,10 +6885,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F155" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G155" t="n">
         <v>10</v>
@@ -6932,10 +6914,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F156" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6990,10 +6972,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F158" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7019,10 +7001,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F159" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G159" t="n">
         <v>2</v>
@@ -7048,10 +7030,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F160" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G160" t="n">
         <v>3</v>
@@ -7077,10 +7059,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F161" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7106,10 +7088,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F162" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7135,10 +7117,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F163" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7164,10 +7146,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F164" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G164" t="n">
         <v>9</v>
@@ -7193,10 +7175,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F165" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G165" t="n">
         <v>3</v>
@@ -7222,10 +7204,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F166" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7251,10 +7233,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F167" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7280,10 +7262,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F168" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7309,10 +7291,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F169" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G169" t="n">
         <v>2</v>
@@ -7338,10 +7320,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F170" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7367,10 +7349,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F171" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7396,10 +7378,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F172" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7425,10 +7407,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F173" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7454,10 +7436,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F174" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7483,10 +7465,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F175" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7512,10 +7494,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F176" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7541,10 +7523,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F177" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7570,10 +7552,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F178" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7599,10 +7581,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F179" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7657,10 +7639,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F181" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7686,10 +7668,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F182" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7715,10 +7697,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F183" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7773,10 +7755,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>144</v>
+      </c>
+      <c r="F185" t="s">
         <v>145</v>
-      </c>
-      <c r="F185" t="s">
-        <v>146</v>
       </c>
       <c r="G185" t="n">
         <v>3</v>
@@ -7802,10 +7784,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F186" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7831,10 +7813,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F187" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7860,10 +7842,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F188" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7889,10 +7871,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F189" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7918,10 +7900,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F190" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7947,10 +7929,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F191" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7976,10 +7958,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F192" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8005,10 +7987,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F193" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8034,10 +8016,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F194" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G194" t="n">
         <v>9</v>
@@ -8063,10 +8045,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F195" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8150,10 +8132,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F198" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8179,10 +8161,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F199" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8208,10 +8190,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F200" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8237,10 +8219,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F201" t="s">
-        <v>372</v>
+        <v>143</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8266,10 +8248,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>144</v>
+      </c>
+      <c r="F202" t="s">
         <v>145</v>
-      </c>
-      <c r="F202" t="s">
-        <v>146</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8295,10 +8277,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F203" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G203" t="n">
         <v>6</v>
@@ -8324,10 +8306,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F204" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8353,10 +8335,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F205" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8382,10 +8364,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F206" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8411,10 +8393,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F207" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8440,10 +8422,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F208" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8469,10 +8451,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F209" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8498,10 +8480,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F210" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8527,10 +8509,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F211" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8556,10 +8538,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F212" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8585,10 +8567,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F213" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G213" t="n">
         <v>2</v>
@@ -8614,10 +8596,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F214" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8643,10 +8625,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F215" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8672,10 +8654,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F216" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G216" t="n">
         <v>2</v>
@@ -8701,10 +8683,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F217" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8730,10 +8712,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F218" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G218" t="n">
         <v>2</v>
@@ -8759,10 +8741,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F219" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G219" t="n">
         <v>4</v>
@@ -8788,10 +8770,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F220" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8817,10 +8799,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F221" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8846,10 +8828,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F222" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8875,10 +8857,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F223" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8904,10 +8886,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F224" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8933,10 +8915,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F225" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8962,10 +8944,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F226" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8991,10 +8973,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F227" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9020,10 +9002,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F228" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9049,10 +9031,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F229" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9078,10 +9060,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F230" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9107,10 +9089,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F231" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G231" t="n">
         <v>2</v>
@@ -9136,10 +9118,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F232" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9165,10 +9147,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F233" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9194,10 +9176,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F234" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9223,10 +9205,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F235" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9252,10 +9234,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F236" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9281,10 +9263,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F237" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9310,10 +9292,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F238" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G238" t="n">
         <v>2</v>
@@ -9339,10 +9321,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F239" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9368,10 +9350,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F240" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9397,10 +9379,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F241" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9426,10 +9408,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F242" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9455,10 +9437,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F243" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9484,10 +9466,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F244" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9513,10 +9495,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F245" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G245" t="n">
         <v>14</v>
@@ -9542,10 +9524,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F246" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9571,10 +9553,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F247" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G247" t="n">
         <v>3</v>
@@ -9600,10 +9582,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F248" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9629,10 +9611,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F249" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9658,10 +9640,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F250" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9687,10 +9669,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F251" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9716,10 +9698,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F252" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9745,10 +9727,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F253" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G253" t="n">
         <v>58</v>
@@ -9774,10 +9756,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F254" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9803,10 +9785,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F255" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9832,10 +9814,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F256" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9861,10 +9843,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F257" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9890,10 +9872,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F258" t="s">
-        <v>480</v>
+        <v>273</v>
       </c>
       <c r="G258" t="n">
         <v>4</v>
@@ -9919,10 +9901,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="F259" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9948,10 +9930,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="F260" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9977,10 +9959,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="F261" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10006,10 +9988,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="F262" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10035,10 +10017,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="F263" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10064,10 +10046,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="F264" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10093,10 +10075,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="F265" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10122,10 +10104,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="F266" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="G266" t="n">
         <v>7</v>
@@ -10151,10 +10133,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="F267" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10180,10 +10162,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="F268" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10209,10 +10191,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="F269" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10238,10 +10220,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="F270" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10267,10 +10249,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="F271" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10296,10 +10278,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F272" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10325,10 +10307,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="F273" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10354,10 +10336,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="F274" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10383,10 +10365,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="F275" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10412,10 +10394,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="F276" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="G276" t="n">
         <v>2</v>
@@ -10441,10 +10423,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="F277" t="s">
-        <v>518</v>
+        <v>341</v>
       </c>
       <c r="G277" t="n">
         <v>13</v>
@@ -10470,10 +10452,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="F278" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10499,10 +10481,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="F279" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10528,10 +10510,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="F280" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="G280" t="n">
         <v>7</v>
@@ -10557,10 +10539,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="F281" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10586,10 +10568,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="F282" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10615,10 +10597,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="F283" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10644,10 +10626,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="F284" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10673,10 +10655,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="F285" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10702,10 +10684,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="F286" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10731,10 +10713,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="F287" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10760,10 +10742,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="F288" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10789,10 +10771,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="F289" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10818,10 +10800,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="F290" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="G290" t="n">
         <v>3</v>
@@ -10847,10 +10829,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="F291" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10876,10 +10858,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="F292" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10934,10 +10916,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="F294" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -10963,10 +10945,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="F295" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -10992,10 +10974,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="F296" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11021,10 +11003,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="F297" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11050,10 +11032,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="F298" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11079,10 +11061,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="F299" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11108,10 +11090,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="F300" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11137,10 +11119,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="F301" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11166,10 +11148,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="F302" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11195,10 +11177,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="F303" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11224,10 +11206,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="F304" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11253,10 +11235,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="F305" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11282,10 +11264,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="F306" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11311,10 +11293,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="F307" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11340,10 +11322,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="F308" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11369,10 +11351,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="F309" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11398,10 +11380,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="F310" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11427,10 +11409,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="F311" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11456,10 +11438,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="F312" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11485,10 +11467,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="F313" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11514,10 +11496,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="F314" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11543,10 +11525,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="F315" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="G315" t="n">
         <v>5</v>
@@ -11572,10 +11554,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="F316" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11601,10 +11583,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="F317" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11630,10 +11612,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="F318" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11688,10 +11670,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="F320" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11717,10 +11699,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="F321" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11746,10 +11728,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="F322" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11775,10 +11757,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="F323" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11804,10 +11786,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="F324" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="G324" t="n">
         <v>3</v>
@@ -11833,10 +11815,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="F325" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -11862,10 +11844,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="F326" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -11891,10 +11873,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="F327" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -11920,10 +11902,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="F328" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -11949,10 +11931,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="F329" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -11978,10 +11960,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="F330" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12007,10 +11989,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="F331" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12036,10 +12018,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="F332" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12065,10 +12047,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="F333" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12094,10 +12076,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="F334" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12123,10 +12105,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="F335" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12152,10 +12134,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="F336" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12181,10 +12163,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="F337" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12210,10 +12192,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="F338" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12239,10 +12221,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="F339" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12268,10 +12250,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="F340" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12297,10 +12279,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="F341" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12326,10 +12308,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="F342" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12355,10 +12337,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="F343" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12384,10 +12366,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="F344" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12413,10 +12395,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="F345" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12442,10 +12424,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="F346" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12471,10 +12453,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="F347" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12500,10 +12482,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="F348" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12529,10 +12511,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="F349" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12558,10 +12540,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="F350" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -12587,10 +12569,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="F351" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -12616,10 +12598,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="F352" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -12645,10 +12627,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="F353" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -12674,10 +12656,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="F354" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -12703,10 +12685,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="F355" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -12732,10 +12714,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="F356" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -12761,10 +12743,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="F357" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -12790,10 +12772,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="F358" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -12819,10 +12801,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="F359" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -12848,10 +12830,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="F360" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="G360" t="n">
         <v>4</v>
@@ -12877,10 +12859,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="F361" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -12906,10 +12888,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="F362" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="G362" t="n">
         <v>3</v>
@@ -12935,10 +12917,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F363" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -12964,10 +12946,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="F364" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>

--- a/xlsx/罗马共和国_intext.xlsx
+++ b/xlsx/罗马共和国_intext.xlsx
@@ -29,7 +29,7 @@
     <t>罗马共和国 (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_政治_罗马共和国</t>
+    <t>体育运动_体育运动_古罗马_罗马共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/SPQR</t>
@@ -4328,7 +4328,7 @@
         <v>130</v>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H66" t="s">
         <v>4</v>
